--- a/rosters/2023/Sacramento/Sacramento.xlsx
+++ b/rosters/2023/Sacramento/Sacramento.xlsx
@@ -49,24 +49,24 @@
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Davion Mitchell</t>
+  </si>
+  <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>Malik Monk</t>
   </si>
   <si>
-    <t>Davion Mitchell</t>
-  </si>
-  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
     <t>Trey Lyles</t>
   </si>
   <si>
@@ -94,36 +94,36 @@
     <t>Neemias Queta (TW)</t>
   </si>
   <si>
-    <t>PJ Dozier</t>
+    <t>Kessler Edwards</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-11</t>
   </si>
   <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -145,24 +145,24 @@
     <t>May 30, 1992</t>
   </si>
   <si>
+    <t>September 5, 1998</t>
+  </si>
+  <si>
     <t>May 3, 1996</t>
   </si>
   <si>
     <t>February 4, 1998</t>
   </si>
   <si>
-    <t>September 5, 1998</t>
-  </si>
-  <si>
     <t>August 19, 2000</t>
   </si>
   <si>
+    <t>August 27, 1998</t>
+  </si>
+  <si>
     <t>December 20, 1997</t>
   </si>
   <si>
-    <t>August 27, 1998</t>
-  </si>
-  <si>
     <t>November 5, 1995</t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>July 13, 1999</t>
   </si>
   <si>
-    <t>October 25, 1996</t>
+    <t>August 9, 2000</t>
   </si>
   <si>
     <t>us</t>
@@ -211,15 +211,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -241,15 +241,15 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>Auburn, Baylor</t>
+  </si>
+  <si>
     <t>Gonzaga</t>
   </si>
   <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Auburn, Baylor</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -277,30 +277,30 @@
     <t>Utah State University</t>
   </si>
   <si>
-    <t>South Carolina</t>
+    <t>Pepperdine</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/barneha02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mitchda01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sabondo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/monkma01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/mitchda01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/murrake02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/huertke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/huertke01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/lylestr01.html</t>
   </si>
   <si>
@@ -328,7 +328,7 @@
     <t>https://www.basketball-reference.com/players/q/quetane01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/d/doziepj01.html</t>
+    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
   </si>
 </sst>
 </file>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -789,7 +789,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -859,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -926,10 +926,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -938,10 +938,10 @@
         <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>93</v>
@@ -952,19 +952,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
@@ -973,10 +973,10 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>94</v>
@@ -1011,7 +1011,7 @@
         <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>95</v>
@@ -1028,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1063,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -1133,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1168,10 +1168,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>200</v>
@@ -1203,7 +1203,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
@@ -1238,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -1273,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1288,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
         <v>86</v>
@@ -1301,20 +1301,17 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>35</v>
-      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
@@ -1323,7 +1320,7 @@
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>

--- a/rosters/2023/Sacramento/Sacramento.xlsx
+++ b/rosters/2023/Sacramento/Sacramento.xlsx
@@ -55,15 +55,15 @@
     <t>Domantas Sabonis</t>
   </si>
   <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
     <t>Malik Monk</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Huerter</t>
-  </si>
-  <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>May 3, 1996</t>
   </si>
   <si>
+    <t>August 19, 2000</t>
+  </si>
+  <si>
+    <t>August 27, 1998</t>
+  </si>
+  <si>
     <t>February 4, 1998</t>
   </si>
   <si>
-    <t>August 19, 2000</t>
-  </si>
-  <si>
-    <t>August 27, 1998</t>
-  </si>
-  <si>
     <t>December 20, 1997</t>
   </si>
   <si>
@@ -217,15 +217,15 @@
     <t>6</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -247,15 +247,15 @@
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Ole Miss</t>
   </si>
   <si>
@@ -289,13 +289,13 @@
     <t>https://www.basketball-reference.com/players/s/sabondo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/murrake02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/huertke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/monkma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/murrake02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/huertke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -856,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -891,10 +891,10 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -917,19 +917,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>185</v>
@@ -973,10 +973,10 @@
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>94</v>
@@ -1011,7 +1011,7 @@
         <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>95</v>
@@ -1028,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1078,7 +1078,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
         <v>81</v>
@@ -1171,7 +1171,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>200</v>
@@ -1221,7 +1221,7 @@
         <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>101</v>
@@ -1238,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
@@ -1253,7 +1253,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>
@@ -1301,11 +1301,14 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>

--- a/rosters/2023/Sacramento/Sacramento.xlsx
+++ b/rosters/2023/Sacramento/Sacramento.xlsx
@@ -64,21 +64,18 @@
     <t>Malik Monk</t>
   </si>
   <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
     <t>Terence Davis</t>
   </si>
   <si>
     <t>Chimezie Metu</t>
   </si>
   <si>
-    <t>KZ Okpala</t>
-  </si>
-  <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>Keon Ellis (TW)</t>
   </si>
   <si>
+    <t>PJ Dozier</t>
+  </si>
+  <si>
     <t>Neemias Queta (TW)</t>
   </si>
   <si>
@@ -160,21 +160,18 @@
     <t>February 4, 1998</t>
   </si>
   <si>
+    <t>November 5, 1995</t>
+  </si>
+  <si>
     <t>December 20, 1997</t>
   </si>
   <si>
-    <t>November 5, 1995</t>
-  </si>
-  <si>
     <t>May 16, 1997</t>
   </si>
   <si>
     <t>March 22, 1997</t>
   </si>
   <si>
-    <t>April 28, 1999</t>
-  </si>
-  <si>
     <t>October 15, 1993</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
     <t>January 8, 2000</t>
   </si>
   <si>
+    <t>October 25, 1996</t>
+  </si>
+  <si>
     <t>July 13, 1999</t>
   </si>
   <si>
@@ -262,9 +262,6 @@
     <t>USC</t>
   </si>
   <si>
-    <t>Stanford</t>
-  </si>
-  <si>
     <t>Bowling Green</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
     <t>Florida SouthWestern State College, Alabama</t>
   </si>
   <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
     <t>Utah State University</t>
   </si>
   <si>
@@ -298,21 +298,18 @@
     <t>https://www.basketball-reference.com/players/m/monkma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/lylestr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lylestr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/d/daviste02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/metuch01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/o/okpalkz01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/holmeri01.html</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/e/elliske01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/d/doziepj01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/q/quetane01.html</t>
@@ -952,28 +952,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -987,28 +987,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -1092,19 +1092,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -1113,7 +1113,7 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
         <v>82</v>
@@ -1127,28 +1127,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
         <v>83</v>
@@ -1162,31 +1162,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>100</v>
@@ -1197,31 +1197,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>101</v>
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="F16">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1253,7 +1253,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>

--- a/rosters/2023/Sacramento/Sacramento.xlsx
+++ b/rosters/2023/Sacramento/Sacramento.xlsx
@@ -70,12 +70,12 @@
     <t>De'Aaron Fox</t>
   </si>
   <si>
+    <t>Chimezie Metu</t>
+  </si>
+  <si>
     <t>Terence Davis</t>
   </si>
   <si>
-    <t>Chimezie Metu</t>
-  </si>
-  <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>PJ Dozier</t>
   </si>
   <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
     <t>Neemias Queta (TW)</t>
   </si>
   <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>December 20, 1997</t>
   </si>
   <si>
+    <t>March 22, 1997</t>
+  </si>
+  <si>
     <t>May 16, 1997</t>
   </si>
   <si>
-    <t>March 22, 1997</t>
-  </si>
-  <si>
     <t>October 15, 1993</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>October 25, 1996</t>
   </si>
   <si>
+    <t>August 9, 2000</t>
+  </si>
+  <si>
     <t>July 13, 1999</t>
   </si>
   <si>
-    <t>August 9, 2000</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>Ole Miss</t>
   </si>
   <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>Bowling Green</t>
   </si>
   <si>
@@ -274,12 +274,12 @@
     <t>South Carolina</t>
   </si>
   <si>
+    <t>Pepperdine</t>
+  </si>
+  <si>
     <t>Utah State University</t>
   </si>
   <si>
-    <t>Pepperdine</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/barneha02.html</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/metuch01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/daviste02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/metuch01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/holmeri01.html</t>
   </si>
   <si>
@@ -325,10 +325,10 @@
     <t>https://www.basketball-reference.com/players/d/doziepj01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/q/quetane01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
   </si>
 </sst>
 </file>
@@ -1022,19 +1022,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -1043,7 +1043,7 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -1057,19 +1057,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -1078,7 +1078,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>81</v>
@@ -1267,25 +1267,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
@@ -1302,25 +1302,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>65</v>

--- a/rosters/2023/Sacramento/Sacramento.xlsx
+++ b/rosters/2023/Sacramento/Sacramento.xlsx
@@ -58,18 +58,18 @@
     <t>Keegan Murray</t>
   </si>
   <si>
+    <t>Malik Monk</t>
+  </si>
+  <si>
     <t>Kevin Huerter</t>
   </si>
   <si>
-    <t>Malik Monk</t>
+    <t>De'Aaron Fox</t>
   </si>
   <si>
     <t>Trey Lyles</t>
   </si>
   <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
     <t>Chimezie Metu</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>Keon Ellis (TW)</t>
   </si>
   <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
     <t>PJ Dozier</t>
   </si>
   <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
     <t>Neemias Queta (TW)</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>6-11</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -154,18 +154,18 @@
     <t>August 19, 2000</t>
   </si>
   <si>
+    <t>February 4, 1998</t>
+  </si>
+  <si>
     <t>August 27, 1998</t>
   </si>
   <si>
-    <t>February 4, 1998</t>
+    <t>December 20, 1997</t>
   </si>
   <si>
     <t>November 5, 1995</t>
   </si>
   <si>
-    <t>December 20, 1997</t>
-  </si>
-  <si>
     <t>March 22, 1997</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>January 8, 2000</t>
   </si>
   <si>
+    <t>August 9, 2000</t>
+  </si>
+  <si>
     <t>October 25, 1996</t>
   </si>
   <si>
-    <t>August 9, 2000</t>
-  </si>
-  <si>
     <t>July 13, 1999</t>
   </si>
   <si>
@@ -220,12 +220,12 @@
     <t>R</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -250,12 +250,12 @@
     <t>Iowa</t>
   </si>
   <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>Florida SouthWestern State College, Alabama</t>
   </si>
   <si>
+    <t>Pepperdine</t>
+  </si>
+  <si>
     <t>South Carolina</t>
   </si>
   <si>
-    <t>Pepperdine</t>
-  </si>
-  <si>
     <t>Utah State University</t>
   </si>
   <si>
@@ -292,18 +292,18 @@
     <t>https://www.basketball-reference.com/players/m/murrake02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/monkma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/huertke01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/monkma01.html</t>
+    <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/lylestr01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/metuch01.html</t>
   </si>
   <si>
@@ -322,10 +322,10 @@
     <t>https://www.basketball-reference.com/players/e/elliske01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/d/doziepj01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/q/quetane01.html</t>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -929,7 +929,7 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -952,31 +952,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>94</v>
@@ -987,31 +987,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>95</v>
@@ -1043,7 +1043,7 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -1136,7 +1136,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>200</v>
@@ -1186,7 +1186,7 @@
         <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>100</v>
@@ -1232,19 +1232,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1253,7 +1253,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>
@@ -1267,19 +1267,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -1288,7 +1288,7 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
         <v>86</v>

--- a/rosters/2023/Sacramento/Sacramento.xlsx
+++ b/rosters/2023/Sacramento/Sacramento.xlsx
@@ -49,27 +49,27 @@
     <t>Harrison Barnes</t>
   </si>
   <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Davion Mitchell</t>
   </si>
   <si>
     <t>Domantas Sabonis</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
     <t>Malik Monk</t>
   </si>
   <si>
     <t>Kevin Huerter</t>
   </si>
   <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
-    <t>Trey Lyles</t>
-  </si>
-  <si>
     <t>Chimezie Metu</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>Alex Len</t>
   </si>
   <si>
+    <t>Kessler Edwards</t>
+  </si>
+  <si>
     <t>Keon Ellis (TW)</t>
   </si>
   <si>
-    <t>Kessler Edwards</t>
-  </si>
-  <si>
     <t>PJ Dozier</t>
   </si>
   <si>
@@ -100,15 +100,15 @@
     <t>PF</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -145,27 +145,27 @@
     <t>May 30, 1992</t>
   </si>
   <si>
+    <t>August 19, 2000</t>
+  </si>
+  <si>
     <t>September 5, 1998</t>
   </si>
   <si>
     <t>May 3, 1996</t>
   </si>
   <si>
-    <t>August 19, 2000</t>
-  </si>
-  <si>
     <t>February 4, 1998</t>
   </si>
   <si>
     <t>August 27, 1998</t>
   </si>
   <si>
+    <t>November 5, 1995</t>
+  </si>
+  <si>
     <t>December 20, 1997</t>
   </si>
   <si>
-    <t>November 5, 1995</t>
-  </si>
-  <si>
     <t>March 22, 1997</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>June 16, 1993</t>
   </si>
   <si>
+    <t>August 9, 2000</t>
+  </si>
+  <si>
     <t>January 8, 2000</t>
   </si>
   <si>
-    <t>August 9, 2000</t>
-  </si>
-  <si>
     <t>October 25, 1996</t>
   </si>
   <si>
@@ -211,15 +211,15 @@
     <t>10</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -241,15 +241,15 @@
     <t>UNC</t>
   </si>
   <si>
+    <t>Iowa</t>
+  </si>
+  <si>
     <t>Auburn, Baylor</t>
   </si>
   <si>
     <t>Gonzaga</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Saint Mary's</t>
   </si>
   <si>
+    <t>Pepperdine</t>
+  </si>
+  <si>
     <t>Florida SouthWestern State College, Alabama</t>
   </si>
   <si>
-    <t>Pepperdine</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
@@ -283,27 +283,27 @@
     <t>https://www.basketball-reference.com/players/b/barneha02.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/murrake02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mitchda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sabondo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/murrake02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/monkma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/huertke01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/lylestr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/f/foxde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lylestr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/metuch01.html</t>
   </si>
   <si>
@@ -319,10 +319,10 @@
     <t>https://www.basketball-reference.com/players/l/lenal01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/e/elliske01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/e/edwarke02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/doziepj01.html</t>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -786,10 +786,10 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -821,10 +821,10 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -856,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -952,28 +952,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>78</v>
@@ -987,28 +987,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
         <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -1028,7 +1028,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1098,7 +1098,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -1133,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -1168,7 +1168,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1197,19 +1197,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
         <v>55</v>
@@ -1218,7 +1218,7 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
@@ -1232,19 +1232,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1308,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -1323,7 +1323,7 @@
         <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>87</v>
